--- a/resultados/tcc_results/RESULTS.xlsx
+++ b/resultados/tcc_results/RESULTS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodri\Desktop\tcc_results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodri\OneDrive\Documentos\GitHub\TCC-App\resultados\tcc_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472A6BA0-D4F3-4429-A88E-F157C2462B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7838899-0441-40A8-AC7D-957AC31D8F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{F367AA7F-A6E5-4CCC-83C7-E469D049DDDE}"/>
+    <workbookView xWindow="4470" yWindow="3300" windowWidth="21600" windowHeight="11505" xr2:uid="{F367AA7F-A6E5-4CCC-83C7-E469D049DDDE}"/>
   </bookViews>
   <sheets>
     <sheet name="updateResults" sheetId="7" r:id="rId1"/>
@@ -263,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -299,13 +299,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -313,6 +306,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4528,10 +4524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E7BDF7-925C-43E7-B70F-DC4FFC5F2ECD}">
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F51" sqref="A51:F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5396,14 +5392,14 @@
       <c r="F47" s="12"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="24" t="s">
+      <c r="A49" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="26"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="23"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
@@ -5452,29 +5448,29 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="24" t="s">
+      <c r="A53" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="26"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="23"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B54" s="22" t="s">
+      <c r="B54" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C54" s="22" t="s">
+      <c r="C54" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D54" s="22" t="s">
+      <c r="D54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E54" s="22" t="s">
+      <c r="E54" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F54" s="14" t="s">
@@ -5483,15 +5479,15 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="10">
-        <f>_xlfn.STDEV.P(A28:A47)</f>
+        <f t="shared" ref="A55:F55" si="2">_xlfn.STDEV.P(A28:A47)</f>
         <v>1.4181675180933309E-2</v>
       </c>
       <c r="B55" s="10">
-        <f>_xlfn.STDEV.P(B28:B47)</f>
+        <f t="shared" si="2"/>
         <v>0.10635536651246141</v>
       </c>
       <c r="C55" s="10">
-        <f>_xlfn.STDEV.P(C28:C47)</f>
+        <f t="shared" si="2"/>
         <v>9.5732021087991601E-3</v>
       </c>
       <c r="D55" s="10">
@@ -5499,21 +5495,13 @@
         <v>0.26680074822749422</v>
       </c>
       <c r="E55" s="10">
-        <f>_xlfn.STDEV.P(E28:E47)</f>
+        <f t="shared" si="2"/>
         <v>3.5849861293316049E-2</v>
       </c>
       <c r="F55" s="10">
-        <f>_xlfn.STDEV.P(F28:F47)</f>
+        <f t="shared" si="2"/>
         <v>2.0643276070274809E-2</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="23"/>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5534,8 +5522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{970031E8-6ACC-4AF5-BB7B-F09B073D4743}">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6454,29 +6442,29 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="24" t="s">
+      <c r="A52" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="26"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="23"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="22" t="s">
+      <c r="B53" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C53" s="22" t="s">
+      <c r="C53" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D53" s="22" t="s">
+      <c r="D53" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E53" s="22" t="s">
+      <c r="E53" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F53" s="14" t="s">
@@ -6485,11 +6473,11 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
-        <f>_xlfn.STDEV.P(A27:A46)</f>
+        <f t="shared" ref="A54:F54" si="2">_xlfn.STDEV.P(A27:A46)</f>
         <v>0.18443350812240944</v>
       </c>
       <c r="B54" s="10">
-        <f>_xlfn.STDEV.P(B27:B46)</f>
+        <f t="shared" si="2"/>
         <v>0.32763241948486604</v>
       </c>
       <c r="C54" s="10">
@@ -6505,7 +6493,7 @@
         <v>0.2196749343365752</v>
       </c>
       <c r="F54" s="10">
-        <f>_xlfn.STDEV.P(F27:F46)</f>
+        <f t="shared" si="2"/>
         <v>0.65242971063277011</v>
       </c>
     </row>
@@ -6528,8 +6516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F85E6139-06CD-414D-825D-A51369290671}">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView topLeftCell="A26" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6984,14 +6972,14 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
@@ -7441,11 +7429,11 @@
         <v>2.8741354999999995</v>
       </c>
       <c r="D50" s="11">
-        <f t="shared" ref="D50:E50" si="1">AVERAGE(D27:D46)</f>
+        <f>AVERAGE(D27:D46)</f>
         <v>2.8382025000000004</v>
       </c>
       <c r="E50" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D50:E50" si="1">AVERAGE(E27:E46)</f>
         <v>1.2553565000000002</v>
       </c>
       <c r="F50" s="12">
@@ -7454,29 +7442,29 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="24" t="s">
+      <c r="A52" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="26"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="23"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="22" t="s">
+      <c r="B53" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C53" s="22" t="s">
+      <c r="C53" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D53" s="22" t="s">
+      <c r="D53" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E53" s="22" t="s">
+      <c r="E53" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F53" s="14" t="s">
@@ -7485,11 +7473,11 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
-        <f>_xlfn.STDEV.P(A27:A46)</f>
+        <f t="shared" ref="A54:F54" si="2">_xlfn.STDEV.P(A27:A46)</f>
         <v>7.3320951812902713E-2</v>
       </c>
       <c r="B54" s="10">
-        <f>_xlfn.STDEV.P(B27:B46)</f>
+        <f t="shared" si="2"/>
         <v>1.0835201818032724E-2</v>
       </c>
       <c r="C54" s="10">
@@ -7497,11 +7485,11 @@
         <v>0.47638392537401014</v>
       </c>
       <c r="D54" s="10">
-        <f>_xlfn.STDEV.P(D27:D46)</f>
+        <f t="shared" si="2"/>
         <v>0.32771270638891853</v>
       </c>
       <c r="E54" s="10">
-        <f>_xlfn.STDEV.P(E27:E46)</f>
+        <f t="shared" si="2"/>
         <v>3.1582287484442931E-2</v>
       </c>
       <c r="F54" s="10">
@@ -7528,8 +7516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0630A995-BCEE-441B-A4AE-148D5725B0AE}">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I51" sqref="I51"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8393,14 +8381,14 @@
       <c r="F45" s="5"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="21" t="s">
+      <c r="A48" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
@@ -8449,29 +8437,29 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="24" t="s">
+      <c r="A52" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="26"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="23"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="22" t="s">
+      <c r="B53" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C53" s="22" t="s">
+      <c r="C53" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D53" s="22" t="s">
+      <c r="D53" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E53" s="22" t="s">
+      <c r="E53" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F53" s="14" t="s">
@@ -8488,7 +8476,7 @@
         <v>1.2314004172706488E-2</v>
       </c>
       <c r="C54" s="11">
-        <f t="shared" si="1"/>
+        <f>_xlfn.STDEV.P(C27:C45)</f>
         <v>3.7517909171317934E-2</v>
       </c>
       <c r="D54" s="11">

--- a/resultados/tcc_results/RESULTS.xlsx
+++ b/resultados/tcc_results/RESULTS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodri\OneDrive\Documentos\GitHub\TCC-App\resultados\tcc_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7838899-0441-40A8-AC7D-957AC31D8F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F70614C8-DDF6-4906-B73E-EB75C794A11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4470" yWindow="3300" windowWidth="21600" windowHeight="11505" xr2:uid="{F367AA7F-A6E5-4CCC-83C7-E469D049DDDE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{F367AA7F-A6E5-4CCC-83C7-E469D049DDDE}"/>
   </bookViews>
   <sheets>
     <sheet name="updateResults" sheetId="7" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="createResults" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">selectResults!$A$2:$A$21</definedName>
     <definedName name="DadosExternos_1" localSheetId="3" hidden="1">createResults!$A$1:$F$21</definedName>
     <definedName name="DadosExternos_2" localSheetId="2" hidden="1">deleteResults!$A$1:$F$21</definedName>
     <definedName name="DadosExternos_3" localSheetId="1" hidden="1">selectResults!$A$1:$F$21</definedName>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="13">
   <si>
     <t>E1</t>
   </si>
@@ -85,24 +86,6 @@
     <t>E6</t>
   </si>
   <si>
-    <t>Column1</t>
-  </si>
-  <si>
-    <t>Column2</t>
-  </si>
-  <si>
-    <t>Column3</t>
-  </si>
-  <si>
-    <t>Column4</t>
-  </si>
-  <si>
-    <t>Column5</t>
-  </si>
-  <si>
-    <t>Column6</t>
-  </si>
-  <si>
     <t>Dados pós filtragem</t>
   </si>
   <si>
@@ -113,6 +96,15 @@
   </si>
   <si>
     <t>desvio padrão</t>
+  </si>
+  <si>
+    <t>coeficiente de variação (dp/u)</t>
+  </si>
+  <si>
+    <t>Média</t>
+  </si>
+  <si>
+    <t>Desvio padrão</t>
   </si>
 </sst>
 </file>
@@ -158,25 +150,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -263,40 +242,42 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -305,7 +286,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -496,7 +496,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>updateResults!$A$49:$F$50</c:f>
+              <c:f>updateResults!$A$59:$F$60</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="6"/>
                 <c:lvl>
@@ -529,7 +529,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>updateResults!$A$51:$F$51</c:f>
+              <c:f>updateResults!$A$61:$F$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -760,7 +760,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -787,107 +787,71 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>selectResults!$A$48:$F$49</c:f>
-              <c:multiLvlStrCache>
+            <c:strRef>
+              <c:f>selectResults!$A$81:$F$81</c:f>
+              <c:strCache>
                 <c:ptCount val="6"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>E1</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>E2</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>E3</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>E4</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>E5</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>E6</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Médias finais</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+                <c:pt idx="0">
+                  <c:v>E1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>E2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>E3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>E4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>E6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>selectResults!$A$50:$F$50</c:f>
+              <c:f>selectResults!$A$82:$F$82</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>50.172874117647048</c:v>
+                  <c:v>3.6759605935658287E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51.689491578947376</c:v>
+                  <c:v>6.3384724723875505E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>157.75454052631582</c:v>
+                  <c:v>3.3181872870539416E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>153.34083149999998</c:v>
+                  <c:v>2.6710089401615421E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40.404283529411764</c:v>
+                  <c:v>5.4369219089521964E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>145.96333944444444</c:v>
+                  <c:v>4.4698190183644938E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1B0C-47F3-B347-D4772C6B2FA8}"/>
+              <c16:uniqueId val="{00000000-D1CB-4C52-9E15-F09696CEF0FD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -899,13 +863,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
-        <c:axId val="1472082288"/>
-        <c:axId val="470996624"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="666155456"/>
+        <c:axId val="666159296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1472082288"/>
+        <c:axId val="666155456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -917,7 +881,7 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -948,7 +912,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470996624"/>
+        <c:crossAx val="666159296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -956,7 +920,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="470996624"/>
+        <c:axId val="666159296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -976,7 +940,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1007,7 +971,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1472082288"/>
+        <c:crossAx val="666155456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1021,6 +985,13 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1151,7 +1122,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>deleteResults!$A$48:$F$49</c:f>
+              <c:f>deleteResults!$A$60:$F$61</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="6"/>
                 <c:lvl>
@@ -1184,7 +1155,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>deleteResults!$A$50:$F$50</c:f>
+              <c:f>deleteResults!$A$62:$F$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1533,7 +1504,7 @@
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>createResults!$A$48:$F$49</c:f>
+              <c:f>createResults!$A$57:$F$58</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="6"/>
                 <c:lvl>
@@ -1566,7 +1537,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>createResults!$A$50:$F$50</c:f>
+              <c:f>createResults!$A$59:$F$59</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1763,6 +1734,42 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{85F4A65C-AB9D-4AC6-AEA4-86D8F6647199}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="0" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1.10000002"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1923,6 +1930,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
   <cs:axisTitle>
@@ -2426,7 +2473,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="407">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2437,7 +2484,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="1"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -2450,24 +2497,24 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2483,7 +2530,521 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" cap="all" spc="150"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -2527,35 +3088,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2567,31 +3128,30 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2693,8 +3253,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -2784,20 +3350,20 @@
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -2810,17 +3376,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -2852,7 +3407,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2861,13 +3416,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2921,13 +3477,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3429,7 +3991,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3976,23 +4538,101 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>588309</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>169207</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>7283</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>235322</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
+      <xdr:colOff>537884</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>129429</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Gráfico 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{701EA983-34E7-E29C-D0C8-497CF4DF225E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6874809" y="7817783"/>
+              <a:ext cx="9703175" cy="5075146"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Este gráfico não está disponível na sua versão de Excel.
+Editar esta forma ou salvar esta pasta de trabalho em um formato de arquivo diferente quebrará o gráfico permanentemente.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>608479</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>1120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>335055</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>77320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
+        <xdr:cNvPr id="6" name="Gráfico 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20F9095E-1708-32D6-A745-C9F450785D98}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16526620-66C2-FA83-CFED-E998B6B92156}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4004,7 +4644,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4058,16 +4698,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>588308</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>350183</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>180414</xdr:rowOff>
+      <xdr:rowOff>156602</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>179294</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>560294</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>177894</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4162,12 +4802,12 @@
     <sortCondition ref="F1:F21"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{D6FA9B8D-C30F-471C-99D8-42AD7B0D661A}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{04716D75-4B14-4E1F-A2F7-2E2E0EAFCE85}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{505D6290-9E02-4A9E-BBBC-4E52152583A0}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{6F7A8E4A-827A-48DA-B131-41164FCF7C20}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{D9B32281-A15C-4D68-83D0-AF1794E460AB}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{F24AAD32-70EF-4190-9E53-58A4700CE4DA}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{D6FA9B8D-C30F-471C-99D8-42AD7B0D661A}" uniqueName="1" name="E1" queryTableFieldId="1" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{04716D75-4B14-4E1F-A2F7-2E2E0EAFCE85}" uniqueName="2" name="E2" queryTableFieldId="2" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{505D6290-9E02-4A9E-BBBC-4E52152583A0}" uniqueName="3" name="E3" queryTableFieldId="3" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{6F7A8E4A-827A-48DA-B131-41164FCF7C20}" uniqueName="4" name="E4" queryTableFieldId="4" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{D9B32281-A15C-4D68-83D0-AF1794E460AB}" uniqueName="5" name="E5" queryTableFieldId="5" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{F24AAD32-70EF-4190-9E53-58A4700CE4DA}" uniqueName="6" name="E6" queryTableFieldId="6" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4524,10 +5164,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E7BDF7-925C-43E7-B70F-DC4FFC5F2ECD}">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F51" sqref="A51:F51"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4537,22 +5177,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -4956,558 +5596,703 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="A23" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="26"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
         <f>AVERAGE(A2:A21)</f>
         <v>1.2535440000000002</v>
       </c>
-      <c r="B23" s="1">
-        <f t="shared" ref="B23:E23" si="0">AVERAGE(B2:B21)</f>
+      <c r="B25" s="14">
+        <f t="shared" ref="B25:F25" si="0">AVERAGE(B2:B21)</f>
         <v>1.4613719999999999</v>
       </c>
-      <c r="C23" s="1">
-        <f t="shared" si="0"/>
+      <c r="C25" s="14">
+        <f>AVERAGE(C2:C21)</f>
         <v>1.3098315000000003</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D25" s="14">
         <f t="shared" si="0"/>
         <v>1.5318604999999996</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E25" s="14">
         <f t="shared" si="0"/>
         <v>1.2940295000000002</v>
       </c>
-      <c r="F23" s="1">
-        <f>AVERAGE(F2:F21)</f>
+      <c r="F25" s="4">
+        <f t="shared" si="0"/>
         <v>2.1982830000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="20"/>
-    </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="26"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B28" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C28" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D28" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E28" t="s">
         <v>4</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="F28" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <f>_xlfn.STDEV.P(A2:A21)</f>
+        <v>0.11193706831965897</v>
+      </c>
+      <c r="B29" s="10">
+        <f t="shared" ref="B29:F29" si="1">_xlfn.STDEV.P(B2:B21)</f>
+        <v>0.10635536651246141</v>
+      </c>
+      <c r="C29" s="10">
+        <f t="shared" si="1"/>
+        <v>9.0239266412964605E-2</v>
+      </c>
+      <c r="D29" s="10">
+        <f t="shared" si="1"/>
+        <v>0.26680074822749478</v>
+      </c>
+      <c r="E29" s="10">
+        <f t="shared" si="1"/>
+        <v>3.5849861293316042E-2</v>
+      </c>
+      <c r="F29" s="11">
+        <f t="shared" si="1"/>
+        <v>0.20807241679521099</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="23">
+        <f>A29/A25</f>
+        <v>8.9296481272024719E-2</v>
+      </c>
+      <c r="B33" s="23">
+        <f t="shared" ref="B33:F33" si="2">B29/B25</f>
+        <v>7.2777750300718383E-2</v>
+      </c>
+      <c r="C33" s="23">
+        <f t="shared" si="2"/>
+        <v>6.8893797723573291E-2</v>
+      </c>
+      <c r="D33" s="23">
+        <f>D29/D25</f>
+        <v>0.17416778370321243</v>
+      </c>
+      <c r="E33" s="23">
+        <f>E29/E25</f>
+        <v>2.7704052568597575E-2</v>
+      </c>
+      <c r="F33" s="23">
+        <f>F29/F25</f>
+        <v>9.4652243043871487E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="26"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
         <v>1.18106</v>
       </c>
-      <c r="B28">
+      <c r="B38">
         <v>1.2529999999999999</v>
       </c>
-      <c r="C28">
+      <c r="C38">
         <v>1.27152</v>
       </c>
-      <c r="D28">
+      <c r="D38">
         <v>1.24112</v>
       </c>
-      <c r="E28">
+      <c r="E38">
         <v>1.22282</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F38" s="8">
         <v>2.10073</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
         <v>1.19591</v>
       </c>
-      <c r="B29">
+      <c r="B39">
         <v>1.2848900000000001</v>
       </c>
-      <c r="C29">
+      <c r="C39">
         <v>1.2728900000000001</v>
       </c>
-      <c r="D29">
+      <c r="D39">
         <v>1.2625599999999999</v>
       </c>
-      <c r="E29">
+      <c r="E39">
         <v>1.2382299999999999</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F39" s="8">
         <v>2.1033400000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
         <v>1.1981200000000001</v>
       </c>
-      <c r="B30">
+      <c r="B40">
         <v>1.3100400000000001</v>
       </c>
-      <c r="C30">
+      <c r="C40">
         <v>1.2740100000000001</v>
       </c>
-      <c r="D30">
+      <c r="D40">
         <v>1.26946</v>
       </c>
-      <c r="E30">
+      <c r="E40">
         <v>1.2517799999999999</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F40" s="8">
         <v>2.1101999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="8">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
         <v>1.2091400000000001</v>
       </c>
-      <c r="B31">
+      <c r="B41">
         <v>1.3824700000000001</v>
       </c>
-      <c r="C31">
+      <c r="C41">
         <v>1.2763199999999999</v>
       </c>
-      <c r="D31">
+      <c r="D41">
         <v>1.2735000000000001</v>
       </c>
-      <c r="E31">
+      <c r="E41">
         <v>1.2518400000000001</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F41" s="8">
         <v>2.1131700000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="8">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="7">
         <v>1.2091499999999999</v>
       </c>
-      <c r="B32">
+      <c r="B42">
         <v>1.39011</v>
       </c>
-      <c r="C32">
+      <c r="C42">
         <v>1.2797000000000001</v>
       </c>
-      <c r="D32">
+      <c r="D42">
         <v>1.2827999999999999</v>
       </c>
-      <c r="E32">
+      <c r="E42">
         <v>1.2662100000000001</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F42" s="8">
         <v>2.11456</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="8">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="7">
         <v>1.21018</v>
       </c>
-      <c r="B33">
+      <c r="B43">
         <v>1.4048400000000001</v>
       </c>
-      <c r="C33">
+      <c r="C43">
         <v>1.2839700000000001</v>
       </c>
-      <c r="D33">
+      <c r="D43">
         <v>1.28718</v>
       </c>
-      <c r="E33">
+      <c r="E43">
         <v>1.2692099999999999</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F43" s="8">
         <v>2.11544</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="8">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="7">
         <v>1.21895</v>
       </c>
-      <c r="B34">
+      <c r="B44">
         <v>1.4092100000000001</v>
       </c>
-      <c r="C34">
+      <c r="C44">
         <v>1.2855399999999999</v>
       </c>
-      <c r="D34">
+      <c r="D44">
         <v>1.2874099999999999</v>
       </c>
-      <c r="E34">
+      <c r="E44">
         <v>1.2739199999999999</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F44" s="8">
         <v>2.1173299999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="8">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="7">
         <v>1.21977</v>
       </c>
-      <c r="B35">
+      <c r="B45">
         <v>1.42811</v>
       </c>
-      <c r="C35">
+      <c r="C45">
         <v>1.28565</v>
       </c>
-      <c r="D35">
+      <c r="D45">
         <v>1.29311</v>
       </c>
-      <c r="E35">
+      <c r="E45">
         <v>1.2788299999999999</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F45" s="8">
         <v>2.1308500000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="8">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="7">
         <v>1.2200800000000001</v>
       </c>
-      <c r="B36">
+      <c r="B46">
         <v>1.4341299999999999</v>
       </c>
-      <c r="C36">
+      <c r="C46">
         <v>1.28705</v>
       </c>
-      <c r="D36">
+      <c r="D46">
         <v>1.3148299999999999</v>
       </c>
-      <c r="E36">
+      <c r="E46">
         <v>1.2793399999999999</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F46" s="8">
         <v>2.13714</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="8">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="7">
         <v>1.22014</v>
       </c>
-      <c r="B37">
+      <c r="B47">
         <v>1.43543</v>
       </c>
-      <c r="C37">
+      <c r="C47">
         <v>1.28712</v>
       </c>
-      <c r="D37">
+      <c r="D47">
         <v>1.3421799999999999</v>
       </c>
-      <c r="E37">
+      <c r="E47">
         <v>1.29419</v>
       </c>
-      <c r="F37" s="9">
+      <c r="F47" s="8">
         <v>2.1393599999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="8">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="7">
         <v>1.2211700000000001</v>
       </c>
-      <c r="B38">
+      <c r="B48">
         <v>1.45414</v>
       </c>
-      <c r="C38">
+      <c r="C48">
         <v>1.2890200000000001</v>
       </c>
-      <c r="D38">
+      <c r="D48">
         <v>1.44686</v>
       </c>
-      <c r="E38">
+      <c r="E48">
         <v>1.3072699999999999</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F48" s="8">
         <v>2.14093</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="8">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="7">
         <v>1.2227600000000001</v>
       </c>
-      <c r="B39">
+      <c r="B49">
         <v>1.4585399999999999</v>
       </c>
-      <c r="C39">
+      <c r="C49">
         <v>1.29074</v>
       </c>
-      <c r="D39">
+      <c r="D49">
         <v>1.58613</v>
       </c>
-      <c r="E39">
+      <c r="E49">
         <v>1.3090299999999999</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F49" s="8">
         <v>2.1425900000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="8">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="7">
         <v>1.2280599999999999</v>
       </c>
-      <c r="B40">
+      <c r="B50">
         <v>1.51454</v>
       </c>
-      <c r="C40">
+      <c r="C50">
         <v>1.2929999999999999</v>
       </c>
-      <c r="D40">
+      <c r="D50">
         <v>1.74075</v>
       </c>
-      <c r="E40">
+      <c r="E50">
         <v>1.3097399999999999</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F50" s="8">
         <v>2.1450999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="8">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="7">
         <v>1.2299500000000001</v>
       </c>
-      <c r="B41">
+      <c r="B51">
         <v>1.53176</v>
       </c>
-      <c r="C41">
+      <c r="C51">
         <v>1.29478</v>
       </c>
-      <c r="D41">
+      <c r="D51">
         <v>1.7788299999999999</v>
       </c>
-      <c r="E41">
+      <c r="E51">
         <v>1.3170500000000001</v>
       </c>
-      <c r="F41" s="9">
+      <c r="F51" s="8">
         <v>2.1463100000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="8">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="7">
         <v>1.2320599999999999</v>
       </c>
-      <c r="B42">
+      <c r="B52">
         <v>1.5596699999999999</v>
       </c>
-      <c r="C42">
+      <c r="C52">
         <v>1.30064</v>
       </c>
-      <c r="D42">
+      <c r="D52">
         <v>1.85592</v>
       </c>
-      <c r="E42">
+      <c r="E52">
         <v>1.32467</v>
       </c>
-      <c r="F42" s="9">
+      <c r="F52" s="8">
         <v>2.1516299999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="8">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="7">
         <v>1.23648</v>
       </c>
-      <c r="B43">
+      <c r="B53">
         <v>1.5672999999999999</v>
       </c>
-      <c r="C43">
+      <c r="C53">
         <v>1.3023199999999999</v>
       </c>
-      <c r="D43">
+      <c r="D53">
         <v>1.85608</v>
       </c>
-      <c r="E43">
+      <c r="E53">
         <v>1.3319399999999999</v>
       </c>
-      <c r="F43" s="9">
+      <c r="F53" s="8">
         <v>2.1533600000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
-      <c r="B44">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="7"/>
+      <c r="B54">
         <v>1.58202</v>
       </c>
-      <c r="C44">
+      <c r="C54">
         <v>1.30233</v>
       </c>
-      <c r="D44">
+      <c r="D54">
         <v>1.8666700000000001</v>
       </c>
-      <c r="E44">
+      <c r="E54">
         <v>1.3319399999999999</v>
       </c>
-      <c r="F44" s="9">
+      <c r="F54" s="8">
         <v>2.1620699999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
-      <c r="B45">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="7"/>
+      <c r="B55">
         <v>1.59527</v>
       </c>
-      <c r="D45">
+      <c r="D55">
         <v>1.87476</v>
       </c>
-      <c r="E45">
+      <c r="E55">
         <v>1.3336600000000001</v>
       </c>
-      <c r="F45" s="9">
+      <c r="F55" s="8">
         <v>2.1753900000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
-      <c r="B46">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="7"/>
+      <c r="B56">
         <v>1.6151899999999999</v>
       </c>
-      <c r="D46">
+      <c r="D56">
         <v>1.8779999999999999</v>
       </c>
-      <c r="E46">
+      <c r="E56">
         <v>1.3387</v>
       </c>
-      <c r="F46" s="9"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="10"/>
-      <c r="B47" s="11">
+      <c r="F56" s="8"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="9"/>
+      <c r="B57" s="10">
         <v>1.6167800000000001</v>
       </c>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11">
+      <c r="C57" s="10"/>
+      <c r="D57" s="10">
         <v>1.89906</v>
       </c>
-      <c r="E47" s="11">
+      <c r="E57" s="10">
         <v>1.35022</v>
       </c>
-      <c r="F47" s="12"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B49" s="22"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="23"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="13" t="s">
+      <c r="F57" s="11"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="28"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="29"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B60" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C60" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D60" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E60" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F50" s="14" t="s">
+      <c r="F60" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="10">
-        <f>AVERAGE(A28:A47)</f>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="9">
+        <f>AVERAGE(A38:A57)</f>
         <v>1.21581125</v>
       </c>
-      <c r="B51" s="11">
-        <f t="shared" ref="B51:F51" si="1">AVERAGE(B28:B47)</f>
+      <c r="B61" s="10">
+        <f t="shared" ref="B61:F61" si="3">AVERAGE(B38:B57)</f>
         <v>1.4613719999999997</v>
       </c>
-      <c r="C51" s="11">
-        <f t="shared" si="1"/>
+      <c r="C61" s="10">
+        <f t="shared" si="3"/>
         <v>1.2868588235294118</v>
       </c>
-      <c r="D51" s="11">
-        <f t="shared" si="1"/>
+      <c r="D61" s="10">
+        <f t="shared" si="3"/>
         <v>1.5318604999999998</v>
       </c>
-      <c r="E51" s="11">
-        <f t="shared" si="1"/>
+      <c r="E61" s="10">
+        <f t="shared" si="3"/>
         <v>1.2940295000000002</v>
       </c>
-      <c r="F51" s="12">
-        <f t="shared" si="1"/>
+      <c r="F61" s="11">
+        <f t="shared" si="3"/>
         <v>2.1333055555555558</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B53" s="22"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="23"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="13" t="s">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" s="28"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="29"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B64" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C64" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D64" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="E64" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F54" s="14" t="s">
+      <c r="F64" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="10">
-        <f t="shared" ref="A55:F55" si="2">_xlfn.STDEV.P(A28:A47)</f>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="9">
+        <f t="shared" ref="A65:F65" si="4">_xlfn.STDEV.P(A38:A57)</f>
         <v>1.4181675180933309E-2</v>
       </c>
-      <c r="B55" s="10">
-        <f t="shared" si="2"/>
+      <c r="B65" s="9">
+        <f t="shared" si="4"/>
         <v>0.10635536651246141</v>
       </c>
-      <c r="C55" s="10">
-        <f t="shared" si="2"/>
+      <c r="C65" s="9">
+        <f t="shared" si="4"/>
         <v>9.5732021087991601E-3</v>
       </c>
-      <c r="D55" s="10">
-        <f>_xlfn.STDEV.P(D28:D47)</f>
+      <c r="D65" s="9">
+        <f>_xlfn.STDEV.P(D38:D57)</f>
         <v>0.26680074822749422</v>
       </c>
-      <c r="E55" s="10">
-        <f t="shared" si="2"/>
+      <c r="E65" s="9">
+        <f t="shared" si="4"/>
         <v>3.5849861293316049E-2</v>
       </c>
-      <c r="F55" s="10">
-        <f t="shared" si="2"/>
+      <c r="F65" s="9">
+        <f t="shared" si="4"/>
         <v>2.0643276070274809E-2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A53:F53"/>
+  <mergeCells count="6">
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="A63:F63"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5520,10 +6305,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{970031E8-6ACC-4AF5-BB7B-F09B073D4743}">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5952,556 +6737,758 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="A23" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="26"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
         <f>AVERAGE(A2:A21)</f>
         <v>50.217231999999996</v>
       </c>
-      <c r="B23" s="1">
-        <f t="shared" ref="B23:D23" si="0">AVERAGE(B2:B21)</f>
+      <c r="B25" s="14">
+        <f t="shared" ref="A25:F25" si="0">AVERAGE(B2:B21)</f>
         <v>51.630528500000004</v>
       </c>
-      <c r="C23" s="1">
-        <f t="shared" si="0"/>
+      <c r="C25" s="14">
+        <f>AVERAGE(C2:C21)</f>
         <v>157.64758750000001</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D25" s="14">
         <f t="shared" si="0"/>
         <v>153.34083150000001</v>
       </c>
-      <c r="E23" s="1">
-        <f>AVERAGE(E2:E21)</f>
+      <c r="E25" s="14">
+        <f t="shared" si="0"/>
         <v>40.614075500000006</v>
       </c>
-      <c r="F23" s="1">
-        <f>AVERAGE(F2:F21)</f>
+      <c r="F25" s="4">
+        <f t="shared" si="0"/>
         <v>146.33808350000001</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="20"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="26"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B28" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C28" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D28" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E28" t="s">
         <v>4</v>
       </c>
-      <c r="F26" s="14" t="s">
+      <c r="F28" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <f>_xlfn.STDEV.P(A2:A21)</f>
+        <v>0.39928460893953865</v>
+      </c>
+      <c r="B29" s="10">
+        <f t="shared" ref="B29:F29" si="1">_xlfn.STDEV.P(B2:B21)</f>
+        <v>0.40991718807919042</v>
+      </c>
+      <c r="C29" s="10">
+        <f t="shared" si="1"/>
+        <v>0.69112156356082122</v>
+      </c>
+      <c r="D29" s="10">
+        <f t="shared" si="1"/>
+        <v>4.0957473182830464</v>
+      </c>
+      <c r="E29" s="10">
+        <f t="shared" si="1"/>
+        <v>0.54621376283900935</v>
+      </c>
+      <c r="F29" s="11">
+        <f t="shared" si="1"/>
+        <v>1.2918762816782241</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="23">
+        <f>A29/A25</f>
+        <v>7.9511473061585451E-3</v>
+      </c>
+      <c r="B33" s="23">
+        <f t="shared" ref="B33:F33" si="2">B29/B25</f>
+        <v>7.9394342841017096E-3</v>
+      </c>
+      <c r="C33" s="23">
+        <f t="shared" si="2"/>
+        <v>4.3839653655392673E-3</v>
+      </c>
+      <c r="D33" s="23">
+        <f>D29/D25</f>
+        <v>2.6710089401615421E-2</v>
+      </c>
+      <c r="E33" s="23">
+        <f>E29/E25</f>
+        <v>1.3448878402735261E-2</v>
+      </c>
+      <c r="F33" s="23">
+        <f>F29/F25</f>
+        <v>8.8280251509390856E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="26"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="7">
         <v>49.75947</v>
       </c>
-      <c r="B27">
+      <c r="B51">
         <v>51.002319999999997</v>
       </c>
-      <c r="C27">
+      <c r="C51">
         <v>156.95538999999999</v>
       </c>
-      <c r="D27">
+      <c r="D51">
         <v>148.71102999999999</v>
       </c>
-      <c r="E27">
+      <c r="E51">
         <v>40.085619999999999</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F51" s="8">
         <v>144.87957</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="7">
         <v>49.967610000000001</v>
       </c>
-      <c r="B28">
+      <c r="B52">
         <v>51.178829999999998</v>
       </c>
-      <c r="C28">
+      <c r="C52">
         <v>156.97859</v>
       </c>
-      <c r="D28">
+      <c r="D52">
         <v>149.79633999999999</v>
       </c>
-      <c r="E28">
+      <c r="E52">
         <v>40.142209999999999</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F52" s="8">
         <v>144.92546999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="7">
         <v>50.016330000000004</v>
       </c>
-      <c r="B29">
+      <c r="B53">
         <v>51.350459999999998</v>
       </c>
-      <c r="C29">
+      <c r="C53">
         <v>157.20815999999999</v>
       </c>
-      <c r="D29">
+      <c r="D53">
         <v>150.27029999999999</v>
       </c>
-      <c r="E29">
+      <c r="E53">
         <v>40.143540000000002</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F53" s="8">
         <v>145.21177</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="7">
         <v>50.064010000000003</v>
       </c>
-      <c r="B30">
+      <c r="B54">
         <v>51.431950000000001</v>
       </c>
-      <c r="C30">
+      <c r="C54">
         <v>157.29810000000001</v>
       </c>
-      <c r="D30">
+      <c r="D54">
         <v>150.4717</v>
       </c>
-      <c r="E30">
+      <c r="E54">
         <v>40.207920000000001</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F54" s="8">
         <v>145.37576999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="8">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="7">
         <v>50.090580000000003</v>
       </c>
-      <c r="B31">
+      <c r="B55">
         <v>51.432690000000001</v>
       </c>
-      <c r="C31">
+      <c r="C55">
         <v>157.35269</v>
       </c>
-      <c r="D31">
+      <c r="D55">
         <v>150.65071</v>
       </c>
-      <c r="E31">
+      <c r="E55">
         <v>40.212429999999998</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F55" s="8">
         <v>145.46991</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="8">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="7">
         <v>50.093989999999998</v>
       </c>
-      <c r="B32">
+      <c r="B56">
         <v>51.441600000000001</v>
       </c>
-      <c r="C32">
+      <c r="C56">
         <v>157.36976000000001</v>
       </c>
-      <c r="D32">
+      <c r="D56">
         <v>150.71259000000001</v>
       </c>
-      <c r="E32">
+      <c r="E56">
         <v>40.249899999999997</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F56" s="8">
         <v>145.6919</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="8">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="7">
         <v>50.096359999999997</v>
       </c>
-      <c r="B33">
+      <c r="B57">
         <v>51.491849999999999</v>
       </c>
-      <c r="C33">
+      <c r="C57">
         <v>157.41776999999999</v>
       </c>
-      <c r="D33">
+      <c r="D57">
         <v>150.74963</v>
       </c>
-      <c r="E33">
+      <c r="E57">
         <v>40.308570000000003</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F57" s="8">
         <v>145.74925999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="8">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="7">
         <v>50.127780000000001</v>
       </c>
-      <c r="B34">
+      <c r="B58">
         <v>51.62039</v>
       </c>
-      <c r="C34">
+      <c r="C58">
         <v>157.54929000000001</v>
       </c>
-      <c r="D34">
+      <c r="D58">
         <v>150.85572999999999</v>
       </c>
-      <c r="E34">
+      <c r="E58">
         <v>40.315919999999998</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F58" s="8">
         <v>145.79101</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="8">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="7">
         <v>50.145150000000001</v>
       </c>
-      <c r="B35">
+      <c r="B59">
         <v>51.629460000000002</v>
       </c>
-      <c r="C35">
+      <c r="C59">
         <v>157.57076000000001</v>
       </c>
-      <c r="D35">
+      <c r="D59">
         <v>150.92843999999999</v>
       </c>
-      <c r="E35">
+      <c r="E59">
         <v>40.321579999999997</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F59" s="8">
         <v>145.85742999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="8">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="7">
         <v>50.148130000000002</v>
       </c>
-      <c r="B36">
+      <c r="B60">
         <v>51.695810000000002</v>
       </c>
-      <c r="C36">
+      <c r="C60">
         <v>157.6002</v>
       </c>
-      <c r="D36">
+      <c r="D60">
         <v>151.03057999999999</v>
       </c>
-      <c r="E36">
+      <c r="E60">
         <v>40.406140000000001</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F60" s="8">
         <v>145.87654000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="8">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="7">
         <v>50.167700000000004</v>
       </c>
-      <c r="B37">
+      <c r="B61">
         <v>51.742289999999997</v>
       </c>
-      <c r="C37">
+      <c r="C61">
         <v>157.83527000000001</v>
       </c>
-      <c r="D37">
+      <c r="D61">
         <v>151.30053000000001</v>
       </c>
-      <c r="E37">
+      <c r="E61">
         <v>40.5548</v>
       </c>
-      <c r="F37" s="9">
+      <c r="F61" s="8">
         <v>146.07356999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="8">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="7">
         <v>50.294370000000001</v>
       </c>
-      <c r="B38">
+      <c r="B62">
         <v>51.864220000000003</v>
       </c>
-      <c r="C38">
+      <c r="C62">
         <v>157.95291</v>
       </c>
-      <c r="D38">
+      <c r="D62">
         <v>151.33262999999999</v>
       </c>
-      <c r="E38">
+      <c r="E62">
         <v>40.572189999999999</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F62" s="8">
         <v>146.07544999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="8">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="7">
         <v>50.302959999999999</v>
       </c>
-      <c r="B39">
+      <c r="B63">
         <v>51.896210000000004</v>
       </c>
-      <c r="C39">
+      <c r="C63">
         <v>158.00585000000001</v>
       </c>
-      <c r="D39">
+      <c r="D63">
         <v>151.36873</v>
       </c>
-      <c r="E39">
+      <c r="E63">
         <v>40.573009999999996</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F63" s="8">
         <v>146.38176999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="8">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="7">
         <v>50.332900000000002</v>
       </c>
-      <c r="B40">
+      <c r="B64">
         <v>51.94256</v>
       </c>
-      <c r="C40">
+      <c r="C64">
         <v>158.14830000000001</v>
       </c>
-      <c r="D40">
+      <c r="D64">
         <v>151.5016</v>
       </c>
-      <c r="E40">
+      <c r="E64">
         <v>40.586779999999997</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F64" s="8">
         <v>146.39823000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="8">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="7">
         <v>50.355870000000003</v>
       </c>
-      <c r="B41">
+      <c r="B65">
         <v>51.989460000000001</v>
       </c>
-      <c r="C41">
+      <c r="C65">
         <v>158.15879000000001</v>
       </c>
-      <c r="D41">
+      <c r="D65">
         <v>158.83309</v>
       </c>
-      <c r="E41">
+      <c r="E65">
         <v>40.609220000000001</v>
       </c>
-      <c r="F41" s="9">
+      <c r="F65" s="8">
         <v>146.66018</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="8">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="7">
         <v>50.394509999999997</v>
       </c>
-      <c r="B42">
+      <c r="B66">
         <v>52.018180000000001</v>
       </c>
-      <c r="C42">
+      <c r="C66">
         <v>158.21002999999999</v>
       </c>
-      <c r="D42">
+      <c r="D66">
         <v>159.35357999999999</v>
       </c>
-      <c r="E42">
+      <c r="E66">
         <v>40.743250000000003</v>
       </c>
-      <c r="F42" s="9">
+      <c r="F66" s="8">
         <v>146.68888999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="8">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="7">
         <v>50.581139999999998</v>
       </c>
-      <c r="B43">
+      <c r="B67">
         <v>52.033000000000001</v>
       </c>
-      <c r="C43">
+      <c r="C67">
         <v>158.24763999999999</v>
       </c>
-      <c r="D43">
+      <c r="D67">
         <v>159.41336999999999</v>
       </c>
-      <c r="E43">
+      <c r="E67">
         <v>40.839739999999999</v>
       </c>
-      <c r="F43" s="9">
+      <c r="F67" s="8">
         <v>146.99985000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
-      <c r="B44">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="7"/>
+      <c r="B68">
         <v>52.040289999999999</v>
       </c>
-      <c r="C44">
+      <c r="C68">
         <v>158.49152000000001</v>
       </c>
-      <c r="D44">
+      <c r="D68">
         <v>159.63704000000001</v>
       </c>
-      <c r="F44" s="9">
+      <c r="F68" s="8">
         <v>147.23354</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
-      <c r="B45">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="7"/>
+      <c r="B69">
         <v>52.298769999999998</v>
       </c>
-      <c r="C45">
+      <c r="C69">
         <v>158.98525000000001</v>
       </c>
-      <c r="D45">
+      <c r="D69">
         <v>159.93951000000001</v>
       </c>
-      <c r="F45" s="9"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="10"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11">
+      <c r="F69" s="8"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="9"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10">
         <v>159.95949999999999</v>
       </c>
-      <c r="E46" s="11"/>
-      <c r="F46" s="12"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="20"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="13" t="s">
+      <c r="E70" s="10"/>
+      <c r="F70" s="11"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72" s="25"/>
+      <c r="C72" s="25"/>
+      <c r="D72" s="25"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="26"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B73" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C73" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D73" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E73" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F49" s="14" t="s">
+      <c r="F73" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="10">
-        <f>AVERAGE(A27:A46)</f>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="9">
+        <f>AVERAGE(A51:A70)</f>
         <v>50.172874117647048</v>
       </c>
-      <c r="B50" s="11">
-        <f t="shared" ref="B50:F50" si="1">AVERAGE(B27:B46)</f>
+      <c r="B74" s="10">
+        <f t="shared" ref="B74:F74" si="3">AVERAGE(B51:B70)</f>
         <v>51.689491578947376</v>
       </c>
-      <c r="C50" s="11">
-        <f t="shared" si="1"/>
+      <c r="C74" s="10">
+        <f t="shared" si="3"/>
         <v>157.75454052631582</v>
       </c>
-      <c r="D50" s="11">
-        <f t="shared" si="1"/>
+      <c r="D74" s="10">
+        <f t="shared" si="3"/>
         <v>153.34083149999998</v>
       </c>
-      <c r="E50" s="11">
-        <f t="shared" si="1"/>
+      <c r="E74" s="10">
+        <f t="shared" si="3"/>
         <v>40.404283529411764</v>
       </c>
-      <c r="F50" s="12">
-        <f t="shared" si="1"/>
+      <c r="F74" s="11">
+        <f t="shared" si="3"/>
         <v>145.96333944444444</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="23"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="13" t="s">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76" s="28"/>
+      <c r="C76" s="28"/>
+      <c r="D76" s="28"/>
+      <c r="E76" s="28"/>
+      <c r="F76" s="29"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B77" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C77" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D77" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E77" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F53" s="14" t="s">
+      <c r="F77" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="10">
-        <f t="shared" ref="A54:F54" si="2">_xlfn.STDEV.P(A27:A46)</f>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="9">
+        <f>_xlfn.STDEV.P(A51:A70)</f>
         <v>0.18443350812240944</v>
       </c>
-      <c r="B54" s="10">
-        <f t="shared" si="2"/>
+      <c r="B78" s="9">
+        <f t="shared" ref="B78:F78" si="4">_xlfn.STDEV.P(B51:B70)</f>
         <v>0.32763241948486604</v>
       </c>
-      <c r="C54" s="10">
-        <f>_xlfn.STDEV.P(C27:C46)</f>
+      <c r="C78" s="9">
+        <f>_xlfn.STDEV.P(C51:C70)</f>
         <v>0.52345911084945695</v>
       </c>
-      <c r="D54" s="10">
-        <f>_xlfn.STDEV.P(D27:D46)</f>
+      <c r="D78" s="9">
+        <f>_xlfn.STDEV.P(D51:D70)</f>
         <v>4.0957473182830455</v>
       </c>
-      <c r="E54" s="10">
-        <f>_xlfn.STDEV.P(E27:E46)</f>
+      <c r="E78" s="9">
+        <f>_xlfn.STDEV.P(E51:E70)</f>
         <v>0.2196749343365752</v>
       </c>
-      <c r="F54" s="10">
-        <f t="shared" si="2"/>
+      <c r="F78" s="9">
+        <f t="shared" si="4"/>
         <v>0.65242971063277011</v>
       </c>
     </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B80" s="30"/>
+      <c r="C80" s="30"/>
+      <c r="D80" s="30"/>
+      <c r="E80" s="30"/>
+      <c r="F80" s="30"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" t="s">
+        <v>4</v>
+      </c>
+      <c r="F81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="23">
+        <f>A78/A74</f>
+        <v>3.6759605935658287E-3</v>
+      </c>
+      <c r="B82" s="23">
+        <f t="shared" ref="B82:F82" si="5">B78/B74</f>
+        <v>6.3384724723875505E-3</v>
+      </c>
+      <c r="C82" s="23">
+        <f t="shared" si="5"/>
+        <v>3.3181872870539416E-3</v>
+      </c>
+      <c r="D82" s="23">
+        <f t="shared" si="5"/>
+        <v>2.6710089401615421E-2</v>
+      </c>
+      <c r="E82" s="23">
+        <f t="shared" si="5"/>
+        <v>5.4369219089521964E-3</v>
+      </c>
+      <c r="F82" s="23">
+        <f t="shared" si="5"/>
+        <v>4.4698190183644938E-3</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="A52:F52"/>
+  <mergeCells count="7">
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="A76:F76"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6514,10 +7501,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F85E6139-06CD-414D-825D-A51369290671}">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6946,562 +7933,705 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <f>AVERAGE(A2:A21)</f>
+      <c r="A23" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="26"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <f t="shared" ref="A25:F25" si="0">AVERAGE(A2:A21)</f>
         <v>1.4588755</v>
       </c>
-      <c r="B23" s="1">
-        <f t="shared" ref="B23:F23" si="0">AVERAGE(B2:B21)</f>
+      <c r="B25" s="14">
+        <f t="shared" si="0"/>
         <v>1.0713135</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C25" s="14">
         <f t="shared" si="0"/>
         <v>2.8741354999999991</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D25" s="14">
         <f t="shared" si="0"/>
         <v>2.8382025</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E25" s="14">
         <f t="shared" si="0"/>
         <v>1.2553565</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F25" s="4">
         <f t="shared" si="0"/>
         <v>2.2673265000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="26"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B28" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C28" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D28" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E28" t="s">
         <v>4</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F28" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="17">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <f>_xlfn.STDEV.P(A2:A21)</f>
+        <v>7.3320951812902713E-2</v>
+      </c>
+      <c r="B29" s="10">
+        <f t="shared" ref="B29:F29" si="1">_xlfn.STDEV.P(B2:B21)</f>
+        <v>0.11498125296216705</v>
+      </c>
+      <c r="C29" s="10">
+        <f t="shared" si="1"/>
+        <v>0.47638392537401492</v>
+      </c>
+      <c r="D29" s="10">
+        <f t="shared" si="1"/>
+        <v>0.32771270638891681</v>
+      </c>
+      <c r="E29" s="10">
+        <f t="shared" si="1"/>
+        <v>3.1582287484442931E-2</v>
+      </c>
+      <c r="F29" s="11">
+        <f t="shared" si="1"/>
+        <v>0.39331327679440109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="23">
+        <f>A29/A25</f>
+        <v>5.0258539411281299E-2</v>
+      </c>
+      <c r="B33" s="23">
+        <f t="shared" ref="B33:F33" si="2">B29/B25</f>
+        <v>0.10732736305681488</v>
+      </c>
+      <c r="C33" s="23">
+        <f t="shared" si="2"/>
+        <v>0.16574859653416307</v>
+      </c>
+      <c r="D33" s="23">
+        <f t="shared" si="2"/>
+        <v>0.11546487834779823</v>
+      </c>
+      <c r="E33" s="23">
+        <f t="shared" si="2"/>
+        <v>2.5158022828131236E-2</v>
+      </c>
+      <c r="F33" s="23">
+        <f t="shared" si="2"/>
+        <v>0.1734700656453321</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="16">
         <v>1.3229299999999999</v>
       </c>
-      <c r="B27" s="17">
+      <c r="B39" s="16">
         <v>1.01502</v>
       </c>
-      <c r="C27" s="17">
+      <c r="C39" s="16">
         <v>2.5400800000000001</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D39" s="16">
         <v>2.5828600000000002</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E39" s="16">
         <v>1.18676</v>
       </c>
-      <c r="F27" s="16">
+      <c r="F39" s="15">
         <v>2.0694699999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="17">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="16">
         <v>1.33453</v>
       </c>
-      <c r="B28" s="17">
+      <c r="B40" s="16">
         <v>1.01512</v>
       </c>
-      <c r="C28" s="17">
+      <c r="C40" s="16">
         <v>2.5486</v>
       </c>
-      <c r="D28" s="17">
+      <c r="D40" s="16">
         <v>2.5843099999999999</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E40" s="16">
         <v>1.2140500000000001</v>
       </c>
-      <c r="F28" s="16">
+      <c r="F40" s="15">
         <v>2.0727799999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="17">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="16">
         <v>1.3586800000000001</v>
       </c>
-      <c r="B29" s="17">
+      <c r="B41" s="16">
         <v>1.0224</v>
       </c>
-      <c r="C29" s="17">
+      <c r="C41" s="16">
         <v>2.5520299999999998</v>
       </c>
-      <c r="D29" s="17">
+      <c r="D41" s="16">
         <v>2.5864600000000002</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E41" s="16">
         <v>1.222</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F41" s="15">
         <v>2.0754800000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="17">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="16">
         <v>1.39391</v>
       </c>
-      <c r="B30" s="17">
+      <c r="B42" s="16">
         <v>1.02382</v>
       </c>
-      <c r="C30" s="17">
+      <c r="C42" s="16">
         <v>2.5564200000000001</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D42" s="16">
         <v>2.6027200000000001</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E42" s="16">
         <v>1.22481</v>
       </c>
-      <c r="F30" s="16">
+      <c r="F42" s="15">
         <v>2.09192</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="17">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="16">
         <v>1.39497</v>
       </c>
-      <c r="B31" s="17">
+      <c r="B43" s="16">
         <v>1.02393</v>
       </c>
-      <c r="C31" s="17">
+      <c r="C43" s="16">
         <v>2.5583200000000001</v>
       </c>
-      <c r="D31" s="17">
+      <c r="D43" s="16">
         <v>2.60528</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E43" s="16">
         <v>1.22925</v>
       </c>
-      <c r="F31" s="16">
+      <c r="F43" s="15">
         <v>2.09659</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="17">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="16">
         <v>1.4177599999999999</v>
       </c>
-      <c r="B32" s="17">
+      <c r="B44" s="16">
         <v>1.0246299999999999</v>
       </c>
-      <c r="C32" s="17">
+      <c r="C44" s="16">
         <v>2.5619999999999998</v>
       </c>
-      <c r="D32" s="17">
+      <c r="D44" s="16">
         <v>2.6114700000000002</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E44" s="16">
         <v>1.2398400000000001</v>
       </c>
-      <c r="F32" s="16">
+      <c r="F44" s="15">
         <v>2.0973299999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="17">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="16">
         <v>1.41811</v>
       </c>
-      <c r="B33" s="17">
+      <c r="B45" s="16">
         <v>1.02627</v>
       </c>
-      <c r="C33" s="17">
+      <c r="C45" s="16">
         <v>2.5636999999999999</v>
       </c>
-      <c r="D33" s="17">
+      <c r="D45" s="16">
         <v>2.6162299999999998</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E45" s="16">
         <v>1.2401199999999999</v>
       </c>
-      <c r="F33" s="16">
+      <c r="F45" s="15">
         <v>2.0986099999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="17">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="16">
         <v>1.4338500000000001</v>
       </c>
-      <c r="B34" s="17">
+      <c r="B46" s="16">
         <v>1.02807</v>
       </c>
-      <c r="C34" s="17">
+      <c r="C46" s="16">
         <v>2.5708899999999999</v>
       </c>
-      <c r="D34" s="17">
+      <c r="D46" s="16">
         <v>2.6173999999999999</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E46" s="16">
         <v>1.24139</v>
       </c>
-      <c r="F34" s="16">
+      <c r="F46" s="15">
         <v>2.0998199999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="17">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="16">
         <v>1.4388000000000001</v>
       </c>
-      <c r="B35" s="17">
+      <c r="B47" s="16">
         <v>1.0305299999999999</v>
       </c>
-      <c r="C35" s="17">
+      <c r="C47" s="16">
         <v>2.5745200000000001</v>
       </c>
-      <c r="D35" s="17">
+      <c r="D47" s="16">
         <v>2.6176200000000001</v>
       </c>
-      <c r="E35" s="17">
+      <c r="E47" s="16">
         <v>1.24363</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F47" s="15">
         <v>2.1007500000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="17">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="16">
         <v>1.4590799999999999</v>
       </c>
-      <c r="B36" s="17">
+      <c r="B48" s="16">
         <v>1.0310900000000001</v>
       </c>
-      <c r="C36" s="17">
+      <c r="C48" s="16">
         <v>2.5755699999999999</v>
       </c>
-      <c r="D36" s="17">
+      <c r="D48" s="16">
         <v>2.6334399999999998</v>
       </c>
-      <c r="E36" s="17">
+      <c r="E48" s="16">
         <v>1.2462200000000001</v>
       </c>
-      <c r="F36" s="16">
+      <c r="F48" s="15">
         <v>2.1010499999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="17">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="16">
         <v>1.46262</v>
       </c>
-      <c r="B37" s="17">
+      <c r="B49" s="16">
         <v>1.0345</v>
       </c>
-      <c r="C37" s="17">
+      <c r="C49" s="16">
         <v>2.5762999999999998</v>
       </c>
-      <c r="D37" s="17">
+      <c r="D49" s="16">
         <v>2.63632</v>
       </c>
-      <c r="E37" s="17">
+      <c r="E49" s="16">
         <v>1.25682</v>
       </c>
-      <c r="F37" s="16">
+      <c r="F49" s="15">
         <v>2.1015199999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="17">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="16">
         <v>1.4780500000000001</v>
       </c>
-      <c r="B38" s="17">
+      <c r="B50" s="16">
         <v>1.0378499999999999</v>
       </c>
-      <c r="C38" s="17">
+      <c r="C50" s="16">
         <v>2.5832799999999998</v>
       </c>
-      <c r="D38" s="17">
+      <c r="D50" s="16">
         <v>2.6478000000000002</v>
       </c>
-      <c r="E38" s="17">
+      <c r="E50" s="16">
         <v>1.2617400000000001</v>
       </c>
-      <c r="F38" s="16">
+      <c r="F50" s="15">
         <v>2.1032899999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="17">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="16">
         <v>1.47862</v>
       </c>
-      <c r="B39" s="17">
+      <c r="B51" s="16">
         <v>1.04189</v>
       </c>
-      <c r="C39" s="17">
+      <c r="C51" s="16">
         <v>2.5902699999999999</v>
       </c>
-      <c r="D39" s="17">
+      <c r="D51" s="16">
         <v>2.7170700000000001</v>
       </c>
-      <c r="E39" s="17">
+      <c r="E51" s="16">
         <v>1.2649999999999999</v>
       </c>
-      <c r="F39" s="16">
+      <c r="F51" s="15">
         <v>2.1050499999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="17">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="16">
         <v>1.5065999999999999</v>
       </c>
-      <c r="B40" s="17">
+      <c r="B52" s="16">
         <v>1.0426</v>
       </c>
-      <c r="C40" s="17">
+      <c r="C52" s="16">
         <v>2.5999699999999999</v>
       </c>
-      <c r="D40" s="17">
+      <c r="D52" s="16">
         <v>2.9477799999999998</v>
       </c>
-      <c r="E40" s="17">
+      <c r="E52" s="16">
         <v>1.2756000000000001</v>
       </c>
-      <c r="F40" s="16">
+      <c r="F52" s="15">
         <v>2.1110699999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="17">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="16">
         <v>1.5331900000000001</v>
       </c>
-      <c r="B41" s="17">
+      <c r="B53" s="16">
         <v>1.04457</v>
       </c>
-      <c r="C41" s="17">
+      <c r="C53" s="16">
         <v>3.2711000000000001</v>
       </c>
-      <c r="D41" s="17">
+      <c r="D53" s="16">
         <v>2.9605999999999999</v>
       </c>
-      <c r="E41" s="17">
+      <c r="E53" s="16">
         <v>1.2771399999999999</v>
       </c>
-      <c r="F41" s="16">
+      <c r="F53" s="15">
         <v>2.1243699999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="17">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="16">
         <v>1.5343100000000001</v>
       </c>
-      <c r="B42" s="17">
+      <c r="B54" s="16">
         <v>1.0560499999999999</v>
       </c>
-      <c r="C42" s="17">
+      <c r="C54" s="16">
         <v>3.5335299999999998</v>
       </c>
-      <c r="D42" s="17">
+      <c r="D54" s="16">
         <v>3.12033</v>
       </c>
-      <c r="E42" s="17">
+      <c r="E54" s="16">
         <v>1.2846900000000001</v>
       </c>
-      <c r="F42" s="16">
+      <c r="F54" s="15">
         <v>2.2111299999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="17">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="16">
         <v>1.5348599999999999</v>
       </c>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17">
+      <c r="B55" s="16"/>
+      <c r="C55" s="16">
         <v>3.55246</v>
       </c>
-      <c r="D43" s="17">
+      <c r="D55" s="16">
         <v>3.2774899999999998</v>
       </c>
-      <c r="E43" s="17">
+      <c r="E55" s="16">
         <v>1.28844</v>
       </c>
-      <c r="F43" s="17"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="17">
+      <c r="F55" s="16"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="16">
         <v>1.5394000000000001</v>
       </c>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17">
+      <c r="B56" s="16"/>
+      <c r="C56" s="16">
         <v>3.7023199999999998</v>
       </c>
-      <c r="D44" s="17">
+      <c r="D56" s="16">
         <v>3.3281200000000002</v>
       </c>
-      <c r="E44" s="17">
+      <c r="E56" s="16">
         <v>1.29698</v>
       </c>
-      <c r="F44" s="17"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="17">
+      <c r="F56" s="16"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="16">
         <v>1.55759</v>
       </c>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17">
+      <c r="B57" s="16"/>
+      <c r="C57" s="16">
         <v>3.7252100000000001</v>
       </c>
-      <c r="D45" s="17">
+      <c r="D57" s="16">
         <v>3.5054099999999999</v>
       </c>
-      <c r="E45" s="17">
+      <c r="E57" s="16">
         <v>1.3033600000000001</v>
       </c>
-      <c r="F45" s="17"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="17">
+      <c r="F57" s="16"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="16">
         <v>1.57965</v>
       </c>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17">
+      <c r="B58" s="16"/>
+      <c r="C58" s="16">
         <v>3.74614</v>
       </c>
-      <c r="D46" s="17">
+      <c r="D58" s="16">
         <v>3.56534</v>
       </c>
-      <c r="E46" s="17">
+      <c r="E58" s="16">
         <v>1.3092900000000001</v>
       </c>
-      <c r="F46" s="17"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="20"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="13" t="s">
+      <c r="F58" s="16"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="19"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B61" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C61" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D61" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E61" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F49" s="14" t="s">
+      <c r="F61" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="10">
-        <f>AVERAGE(A27:A46)</f>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="9">
+        <f>AVERAGE(A39:A58)</f>
         <v>1.4588755</v>
       </c>
-      <c r="B50" s="11">
-        <f>AVERAGE(B27:B42)</f>
+      <c r="B62" s="10">
+        <f>AVERAGE(B39:B54)</f>
         <v>1.0311462500000002</v>
       </c>
-      <c r="C50" s="11">
-        <f>AVERAGE(C27:C46)</f>
+      <c r="C62" s="10">
+        <f>AVERAGE(C39:C58)</f>
         <v>2.8741354999999995</v>
       </c>
-      <c r="D50" s="11">
-        <f>AVERAGE(D27:D46)</f>
+      <c r="D62" s="10">
+        <f>AVERAGE(D39:D58)</f>
         <v>2.8382025000000004</v>
       </c>
-      <c r="E50" s="11">
-        <f t="shared" ref="D50:E50" si="1">AVERAGE(E27:E46)</f>
+      <c r="E62" s="10">
+        <f t="shared" ref="E62" si="3">AVERAGE(E39:E58)</f>
         <v>1.2553565000000002</v>
       </c>
-      <c r="F50" s="12">
-        <f>AVERAGE(F27:F42)</f>
+      <c r="F62" s="11">
+        <f>AVERAGE(F39:F54)</f>
         <v>2.1037643749999999</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="23"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="13" t="s">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" s="21"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="22"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B65" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C65" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D65" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E65" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F53" s="14" t="s">
+      <c r="F65" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="10">
-        <f t="shared" ref="A54:F54" si="2">_xlfn.STDEV.P(A27:A46)</f>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="9">
+        <f t="shared" ref="A66:E66" si="4">_xlfn.STDEV.P(A39:A58)</f>
         <v>7.3320951812902713E-2</v>
       </c>
-      <c r="B54" s="10">
-        <f t="shared" si="2"/>
+      <c r="B66" s="9">
+        <f t="shared" si="4"/>
         <v>1.0835201818032724E-2</v>
       </c>
-      <c r="C54" s="10">
-        <f>_xlfn.STDEV.P(C27:C46)</f>
+      <c r="C66" s="9">
+        <f>_xlfn.STDEV.P(C39:C58)</f>
         <v>0.47638392537401014</v>
       </c>
-      <c r="D54" s="10">
-        <f t="shared" si="2"/>
+      <c r="D66" s="9">
+        <f t="shared" si="4"/>
         <v>0.32771270638891853</v>
       </c>
-      <c r="E54" s="10">
-        <f t="shared" si="2"/>
+      <c r="E66" s="9">
+        <f t="shared" si="4"/>
         <v>3.1582287484442931E-2</v>
       </c>
-      <c r="F54" s="10">
-        <f>_xlfn.STDEV.P(F27:F46)</f>
+      <c r="F66" s="9">
+        <f>_xlfn.STDEV.P(F39:F58)</f>
         <v>3.0862740474711128E-2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="A52:F52"/>
+  <mergeCells count="4">
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A31:F31"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7514,10 +8644,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0630A995-BCEE-441B-A4AE-148D5725B0AE}">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7951,552 +9081,697 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <f>AVERAGE(A2:A21)</f>
+      <c r="A23" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="26"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <f t="shared" ref="A25:F25" si="0">AVERAGE(A2:A21)</f>
         <v>2.3848624999999997</v>
       </c>
-      <c r="B23" s="2">
-        <f>AVERAGE(B2:B21)</f>
+      <c r="B25" s="14">
+        <f t="shared" si="0"/>
         <v>2.3845560000000003</v>
       </c>
-      <c r="C23" s="2">
-        <f>AVERAGE(C2:C21)</f>
+      <c r="C25" s="14">
+        <f t="shared" si="0"/>
         <v>4.6826370000000015</v>
       </c>
-      <c r="D23" s="2">
-        <f>AVERAGE(D2:D21)</f>
+      <c r="D25" s="14">
+        <f t="shared" si="0"/>
         <v>4.3931000000000004</v>
       </c>
-      <c r="E23" s="2">
-        <f t="shared" ref="E23" si="0">AVERAGE(E2:E21)</f>
+      <c r="E25" s="14">
+        <f t="shared" si="0"/>
         <v>2.2073694999999995</v>
       </c>
-      <c r="F23" s="2">
-        <f>AVERAGE(F2:F21)</f>
+      <c r="F25" s="4">
+        <f t="shared" si="0"/>
         <v>4.3005034999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="20"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="26"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B28" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C28" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D28" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E28" t="s">
         <v>4</v>
       </c>
-      <c r="F26" s="14"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
+      <c r="F28" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <f>_xlfn.STDEV.P(A2:A21)</f>
+        <v>2.9934286174051312E-2</v>
+      </c>
+      <c r="B29" s="10">
+        <f t="shared" ref="B29:F29" si="1">_xlfn.STDEV.P(B2:B21)</f>
+        <v>3.5123827297149746E-2</v>
+      </c>
+      <c r="C29" s="10">
+        <f t="shared" si="1"/>
+        <v>8.8746913529429386E-2</v>
+      </c>
+      <c r="D29" s="10">
+        <f t="shared" si="1"/>
+        <v>4.5097031166142207E-2</v>
+      </c>
+      <c r="E29" s="10">
+        <f t="shared" si="1"/>
+        <v>2.9356865887727193E-2</v>
+      </c>
+      <c r="F29" s="11">
+        <f t="shared" si="1"/>
+        <v>4.4780674433844703E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="23">
+        <f>A29/A25</f>
+        <v>1.2551787020866534E-2</v>
+      </c>
+      <c r="B33" s="23">
+        <f t="shared" ref="B33:F33" si="2">B29/B25</f>
+        <v>1.4729713748450337E-2</v>
+      </c>
+      <c r="C33" s="23">
+        <f t="shared" si="2"/>
+        <v>1.8952336798566567E-2</v>
+      </c>
+      <c r="D33" s="23">
+        <f t="shared" si="2"/>
+        <v>1.0265423315231203E-2</v>
+      </c>
+      <c r="E33" s="23">
+        <f t="shared" si="2"/>
+        <v>1.3299479714532252E-2</v>
+      </c>
+      <c r="F33" s="23">
+        <f t="shared" si="2"/>
+        <v>1.0412891056557612E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="26"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="13"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
         <v>2.3567100000000001</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B36" s="1">
         <v>2.3559999999999999</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C36" s="1">
         <v>4.5825500000000003</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D36" s="1">
         <v>4.3242200000000004</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E36" s="1">
         <v>2.1732499999999999</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F36" s="3">
         <v>4.2449300000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
         <v>2.3609</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B37" s="1">
         <v>2.3570099999999998</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C37" s="1">
         <v>4.6143700000000001</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D37" s="1">
         <v>4.3405500000000004</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E37" s="1">
         <v>2.1735000000000002</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F37" s="3">
         <v>4.2545099999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
         <v>2.3618000000000001</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B38" s="1">
         <v>2.36131</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C38" s="1">
         <v>4.6308100000000003</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D38" s="1">
         <v>4.3442600000000002</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E38" s="1">
         <v>2.1823000000000001</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F38" s="3">
         <v>4.2616100000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
         <v>2.3624100000000001</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B39" s="1">
         <v>2.3618800000000002</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C39" s="1">
         <v>4.6360799999999998</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D39" s="1">
         <v>4.3551799999999998</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E39" s="1">
         <v>2.18302</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F39" s="3">
         <v>4.2796000000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
         <v>2.36538</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B40" s="1">
         <v>2.3630900000000001</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C40" s="1">
         <v>4.6364799999999997</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D40" s="1">
         <v>4.3619899999999996</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E40" s="1">
         <v>2.1853899999999999</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F40" s="3">
         <v>4.2831099999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
         <v>2.36754</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B41" s="1">
         <v>2.3642400000000001</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C41" s="1">
         <v>4.64839</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D41" s="1">
         <v>4.3731499999999999</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E41" s="1">
         <v>2.1897000000000002</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F41" s="3">
         <v>4.2838000000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
         <v>2.37182</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B42" s="1">
         <v>2.3755999999999999</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C42" s="1">
         <v>4.6493599999999997</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D42" s="1">
         <v>4.3809500000000003</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E42" s="1">
         <v>2.1933500000000001</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F42" s="3">
         <v>4.2876300000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
         <v>2.3736600000000001</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B43" s="1">
         <v>2.3764400000000001</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C43" s="1">
         <v>4.6521400000000002</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D43" s="1">
         <v>4.3838299999999997</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E43" s="1">
         <v>2.1956699999999998</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F43" s="3">
         <v>4.2936100000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
         <v>2.3740399999999999</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B44" s="1">
         <v>2.3772199999999999</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C44" s="1">
         <v>4.6535399999999996</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D44" s="1">
         <v>4.3852200000000003</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E44" s="1">
         <v>2.19692</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F44" s="3">
         <v>4.3033400000000004</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
         <v>2.3778999999999999</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B45" s="1">
         <v>2.3774000000000002</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C45" s="1">
         <v>4.6549699999999996</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D45" s="1">
         <v>4.38734</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E45" s="1">
         <v>2.2051099999999999</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F45" s="3">
         <v>4.3035399999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
         <v>2.3781699999999999</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B46" s="1">
         <v>2.3782800000000002</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C46" s="1">
         <v>4.6569200000000004</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D46" s="1">
         <v>4.3896499999999996</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E46" s="1">
         <v>2.2073700000000001</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F46" s="3">
         <v>4.3050800000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
         <v>2.3786</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B47" s="1">
         <v>2.3788</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C47" s="1">
         <v>4.6741299999999999</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D47" s="1">
         <v>4.3919100000000002</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E47" s="1">
         <v>2.2075</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F47" s="3">
         <v>4.3051700000000004</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
         <v>2.3822399999999999</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B48" s="1">
         <v>2.3803999999999998</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C48" s="1">
         <v>4.6822600000000003</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D48" s="1">
         <v>4.4021999999999997</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E48" s="1">
         <v>2.2086800000000002</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F48" s="3">
         <v>4.3068200000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
         <v>2.3837000000000002</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B49" s="1">
         <v>2.3819499999999998</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C49" s="1">
         <v>4.6869100000000001</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D49" s="1">
         <v>4.4050399999999996</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E49" s="1">
         <v>2.2141600000000001</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F49" s="3">
         <v>4.3140999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
         <v>2.3913899999999999</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B50" s="1">
         <v>2.38212</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C50" s="1">
         <v>4.69123</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D50" s="1">
         <v>4.4061500000000002</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E50" s="1">
         <v>2.2145199999999998</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F50" s="3">
         <v>4.3163900000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
         <v>2.3914900000000001</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B51" s="1">
         <v>2.3839999999999999</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C51" s="1">
         <v>4.6957800000000001</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D51" s="1">
         <v>4.4129500000000004</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E51" s="1">
         <v>2.2149399999999999</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F51" s="3">
         <v>4.3218899999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
         <v>2.39655</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B52" s="1">
         <v>2.3906200000000002</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C52" s="1">
         <v>4.7078800000000003</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D52" s="1">
         <v>4.4171800000000001</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E52" s="1">
         <v>2.22689</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F52" s="3">
         <v>4.3262299999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
         <v>2.4116200000000001</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B53" s="1">
         <v>2.4056000000000002</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C53" s="1">
         <v>4.7195400000000003</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D53" s="1">
         <v>4.4245700000000001</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E53" s="1">
         <v>2.2280600000000002</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F53" s="3">
         <v>4.3318099999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="7">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="6">
         <v>2.41492</v>
       </c>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15">
+      <c r="B54" s="14"/>
+      <c r="C54" s="14">
         <v>4.7442900000000003</v>
       </c>
-      <c r="D45" s="15">
+      <c r="D54" s="14">
         <v>4.4272900000000002</v>
       </c>
-      <c r="E45" s="15">
+      <c r="E54" s="14">
         <v>2.23651</v>
       </c>
-      <c r="F45" s="5"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
+      <c r="F54" s="4"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="31"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B58" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C58" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D58" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E58" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="F58" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <f>AVERAGE(A27:A45)</f>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <f>AVERAGE(A36:A54)</f>
         <v>2.3789915789473683</v>
       </c>
-      <c r="B50" s="1">
-        <f>AVERAGE(B27:B44)</f>
+      <c r="B59" s="1">
+        <f>AVERAGE(B36:B53)</f>
         <v>2.3751088888888892</v>
       </c>
-      <c r="C50" s="1">
-        <f>AVERAGE(C27:C45)</f>
+      <c r="C59" s="1">
+        <f>AVERAGE(C36:C54)</f>
         <v>4.6640857894736847</v>
       </c>
-      <c r="D50" s="1">
-        <f>AVERAGE(D27:D45)</f>
+      <c r="D59" s="1">
+        <f>AVERAGE(D36:D54)</f>
         <v>4.3849278947368422</v>
       </c>
-      <c r="E50" s="1">
-        <f>AVERAGE(E27:E45)</f>
+      <c r="E59" s="1">
+        <f>AVERAGE(E36:E54)</f>
         <v>2.2019389473684208</v>
       </c>
-      <c r="F50" s="1">
-        <f>AVERAGE(F27:F44)</f>
+      <c r="F59" s="1">
+        <f>AVERAGE(F36:F53)</f>
         <v>4.2957316666666658</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="23"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="13" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" s="28"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="29"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B62" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C62" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D62" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E62" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F53" s="14" t="s">
+      <c r="F62" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="10">
-        <f>_xlfn.STDEV.P(A27:A45)</f>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="9">
+        <f>_xlfn.STDEV.P(A36:A54)</f>
         <v>1.5933246361372434E-2</v>
       </c>
-      <c r="B54" s="11">
-        <f t="shared" ref="B54:F54" si="1">_xlfn.STDEV.P(B27:B45)</f>
+      <c r="B63" s="10">
+        <f t="shared" ref="B63:F63" si="3">_xlfn.STDEV.P(B36:B54)</f>
         <v>1.2314004172706488E-2</v>
       </c>
-      <c r="C54" s="11">
-        <f>_xlfn.STDEV.P(C27:C45)</f>
+      <c r="C63" s="10">
+        <f>_xlfn.STDEV.P(C36:C54)</f>
         <v>3.7517909171317934E-2</v>
       </c>
-      <c r="D54" s="11">
-        <f t="shared" si="1"/>
+      <c r="D63" s="10">
+        <f t="shared" si="3"/>
         <v>2.8374551900741361E-2</v>
       </c>
-      <c r="E54" s="11">
-        <f t="shared" si="1"/>
+      <c r="E63" s="10">
+        <f t="shared" si="3"/>
         <v>1.781479098500274E-2</v>
       </c>
-      <c r="F54" s="12">
-        <f t="shared" si="1"/>
+      <c r="F63" s="11">
+        <f t="shared" si="3"/>
         <v>2.3775407754419012E-2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="A52:F52"/>
+  <mergeCells count="6">
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A57:F57"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
